--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/PENNSYLVANIA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/PENNSYLVANIA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D945"/>
+  <dimension ref="A1:D939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C3">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C19">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C22">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C24">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C46">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C49">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C53">
@@ -1361,7 +1361,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C75">
@@ -1592,7 +1592,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1682,7 +1682,7 @@
         <v>56</v>
       </c>
       <c r="D98">
-        <v>0.009978617248752673</v>
+        <v>0.009978617248752672</v>
       </c>
     </row>
     <row r="99">
@@ -1695,7 +1695,7 @@
         <v>51</v>
       </c>
       <c r="D99">
-        <v>0.009087669280114041</v>
+        <v>0.009087669280114039</v>
       </c>
     </row>
     <row r="100">
@@ -1901,12 +1901,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C115">
@@ -1919,7 +1919,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C116">
@@ -1932,7 +1932,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C117">
@@ -1945,7 +1945,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C118">
@@ -1997,7 +1997,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C122">
@@ -2075,7 +2075,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C128">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C131">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C138">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C142">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C153">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C165">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C174">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C183">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C191">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C202">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C203">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C208">
@@ -3172,7 +3172,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C212">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C220">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C222">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C225">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C227">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C232">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C236">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C237">
@@ -3554,7 +3554,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C241">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C243">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C244">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C247">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C253">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C257">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C265">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C267">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C281">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C283">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C285">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C289">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C302">
@@ -4365,7 +4365,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C303">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C307">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C310">
@@ -4482,7 +4482,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C312">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C317">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C318">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C320">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C322">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C326">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C330">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C332">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C339">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C340">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C342">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C345">
@@ -4929,7 +4929,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C346">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C354">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C357">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C363">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C365">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C368">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C379">
@@ -5519,7 +5519,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C391">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C431">
@@ -6278,7 +6278,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C449">
@@ -6382,7 +6382,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C457">
@@ -6421,7 +6421,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C460">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C467">
@@ -6709,7 +6709,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C481">
@@ -6787,7 +6787,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C487">
@@ -6800,7 +6800,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C488">
@@ -6813,7 +6813,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C489">
@@ -6826,7 +6826,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C490">
@@ -6878,7 +6878,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C494">
@@ -6904,7 +6904,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C496">
@@ -6917,7 +6917,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C497">
@@ -6930,7 +6930,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C498">
@@ -6943,7 +6943,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C499">
@@ -7112,7 +7112,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C512">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C513">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C516">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C521">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C525">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C531">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C544">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C556">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C565">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C594">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C602">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C605">
@@ -8521,7 +8521,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C620">
@@ -8547,7 +8547,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C622">
@@ -8716,7 +8716,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C635">
@@ -8859,7 +8859,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C646">
@@ -8872,7 +8872,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C647">
@@ -8911,7 +8911,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C650">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C652">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C662">
@@ -9158,7 +9158,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C669">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C687">
@@ -9444,7 +9444,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C691">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C692">
@@ -9548,7 +9548,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C699">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C706">
@@ -9704,7 +9704,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C711">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C713">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C714">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C719">
@@ -10073,7 +10073,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C739">
@@ -10112,7 +10112,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C742">
@@ -10138,7 +10138,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C744">
@@ -10177,7 +10177,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C747">
@@ -10291,7 +10291,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C755">
@@ -10369,7 +10369,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C761">
@@ -10408,7 +10408,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C764">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C799">
@@ -10979,7 +10979,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C806">
@@ -10992,7 +10992,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C807">
@@ -11044,7 +11044,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C811">
@@ -11109,7 +11109,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C816">
@@ -11283,7 +11283,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C829">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C833">
@@ -11452,7 +11452,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C842">
@@ -11569,7 +11569,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C851">
@@ -11582,7 +11582,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C852">
@@ -11634,7 +11634,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C856">
@@ -11751,7 +11751,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C865">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C869">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C871">
@@ -11868,7 +11868,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C874">
@@ -11959,7 +11959,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C881">
@@ -11998,7 +11998,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C884">
@@ -12011,7 +12011,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C885">
@@ -12050,7 +12050,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C888">
@@ -12580,7 +12580,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C928">
@@ -12731,41 +12731,6 @@
       </c>
       <c r="D939">
         <v>1</v>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
